--- a/data/case1/14/V1_6.xlsx
+++ b/data/case1/14/V1_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999055004807</v>
+        <v>0.99999999469869549</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.9948484226742762</v>
+        <v>0.99487436656238937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97710576708267283</v>
+        <v>0.97712642219323398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96986500006627074</v>
+        <v>0.96988259040409908</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95961420407141551</v>
+        <v>0.95962967880609273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93719778720525526</v>
+        <v>0.93752843719426737</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93752250569239115</v>
+        <v>0.93736854694320182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93387569859679131</v>
+        <v>0.93345579283975955</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93394879209848924</v>
+        <v>0.93284193401942517</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9349737450461395</v>
+        <v>0.9331717881118029</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93476008016722778</v>
+        <v>0.9328682403146763</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93460970442288982</v>
+        <v>0.93254676384868884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93463010378165312</v>
+        <v>0.93192491333540461</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93505500451637213</v>
+        <v>0.93212471716385159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.93708475885924081</v>
+        <v>0.9338974299706635</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9402334378883318</v>
+        <v>0.93671529255934805</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.9475037200755887</v>
+        <v>0.94343993763906875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.95202748154582384</v>
+        <v>0.94763497246407669</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99136021452049139</v>
+        <v>0.99142518447265959</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98424327161098302</v>
+        <v>0.98430804352627843</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98284480859251788</v>
+        <v>0.98290954510062678</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98158030855784939</v>
+        <v>0.98164503659659441</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97007051536318678</v>
+        <v>0.97009108286373424</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95704916524359973</v>
+        <v>0.95706965653353326</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95059210176310394</v>
+        <v>0.9506125679711932</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93354191217391547</v>
+        <v>0.93387237340636398</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.92869478450369003</v>
+        <v>0.92902509633214048</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.90722004668626732</v>
+        <v>0.90754985977928848</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89194813067480894</v>
+        <v>0.89227755637408579</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.88537767777201148</v>
+        <v>0.88570694052820653</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.87772398939836993</v>
+        <v>0.87805292811573887</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.87604471134913675</v>
+        <v>0.87637358095193219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8755247182846525</v>
+        <v>0.87585356764055822</v>
       </c>
     </row>
   </sheetData>
